--- a/_sources/Sportverseny/sportverseny.xlsx
+++ b/_sources/Sportverseny/sportverseny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Public\Iskola\Tanmenetek\2022-2023\13sz\Vizsgaremek\Feladatkiosztás\_sources\Sportverseny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Public\Iskola\Tanmenetek\2024-2025\13d\vizsgaremek\vizsgaremek_2025\_sources\Sportverseny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9910C5-C286-437F-A2A1-684D52EB4185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB684624-CB2C-45ED-9BD7-AAE0CCDCC26D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Végeredmény" sheetId="3" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +796,7 @@
       </c>
       <c r="D3" s="24">
         <f>Pontozás!K$2</f>
-        <v>72.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -809,11 +809,11 @@
       </c>
       <c r="C4" s="5">
         <f>Pontozás!R$1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="24">
         <f>Pontozás!R$2</f>
-        <v>58.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -826,11 +826,11 @@
       </c>
       <c r="C5" s="5">
         <f>Pontozás!P$1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="24">
         <f>Pontozás!P$2</f>
-        <v>50.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -843,11 +843,11 @@
       </c>
       <c r="C6" s="5">
         <f>Pontozás!N$1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="24">
         <f>Pontozás!N$2</f>
-        <v>50.7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
       </c>
       <c r="D7" s="24">
         <f>Pontozás!L$2</f>
-        <v>40.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -877,11 +877,11 @@
       </c>
       <c r="C8" s="5">
         <f>Pontozás!M$1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="24">
         <f>Pontozás!M$2</f>
-        <v>39.799999999999997</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
       </c>
       <c r="D9" s="24">
         <f>Pontozás!Q$2</f>
-        <v>25.9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
       </c>
       <c r="D10" s="24">
         <f>Pontozás!O$2</f>
-        <v>23.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,8 +945,8 @@
   </sheetPr>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,11 +973,11 @@
       </c>
       <c r="M1" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O1" s="10">
         <f t="shared" si="0"/>
@@ -985,7 +985,7 @@
       </c>
       <c r="P1" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="10">
         <f t="shared" si="0"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="R1" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1002,35 +1002,35 @@
       </c>
       <c r="K2" s="8">
         <f>SUM(K5:K16)</f>
-        <v>72.5</v>
+        <v>74</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2:O2" si="1">SUM(L5:L16)</f>
-        <v>40.6</v>
+        <v>42</v>
       </c>
       <c r="M2" s="8">
         <f t="shared" si="1"/>
-        <v>39.799999999999997</v>
+        <v>42</v>
       </c>
       <c r="N2" s="8">
         <f t="shared" si="1"/>
-        <v>50.7</v>
+        <v>57</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" si="1"/>
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2:R2" si="2">SUM(P5:P16)</f>
-        <v>50.8</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="8">
         <f t="shared" si="2"/>
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="R2" s="8">
         <f t="shared" si="2"/>
-        <v>58.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1132,35 +1132,35 @@
       </c>
       <c r="K5" s="2">
         <f>_xlfn.RANK.EQ(B5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>4.8999999999999995</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2">
         <f>_xlfn.RANK.EQ(C5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M5" s="2">
         <f>_xlfn.RANK.EQ(D5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>4.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="N5" s="2">
         <f>_xlfn.RANK.EQ(E5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="O5" s="2">
         <f>_xlfn.RANK.EQ(F5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="P5" s="2">
         <f>_xlfn.RANK.EQ(G5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="2">
         <f>_xlfn.RANK.EQ(H5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2">
         <f>_xlfn.RANK.EQ(I5,$B5:$I5,Paraméterek!$C2)*Paraméterek!$B2</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1193,35 +1193,35 @@
       </c>
       <c r="K6" s="2">
         <f>_xlfn.RANK.EQ(B6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="L6" s="2">
         <f>_xlfn.RANK.EQ(C6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>0.89999999999999991</v>
+        <v>3</v>
       </c>
       <c r="M6" s="2">
         <f>_xlfn.RANK.EQ(D6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="N6" s="2">
         <f>_xlfn.RANK.EQ(E6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="O6" s="2">
         <f>_xlfn.RANK.EQ(F6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="P6" s="2">
         <f>_xlfn.RANK.EQ(G6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <f>_xlfn.RANK.EQ(H6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="R6" s="2">
         <f>_xlfn.RANK.EQ(I6,$B6:$I6,Paraméterek!$C3)*Paraméterek!$B3</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1254,35 +1254,35 @@
       </c>
       <c r="K7" s="2">
         <f>_xlfn.RANK.EQ(B7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L7" s="2">
         <f>_xlfn.RANK.EQ(C7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>_xlfn.RANK.EQ(D7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" s="2">
         <f>_xlfn.RANK.EQ(E7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O7" s="2">
         <f>_xlfn.RANK.EQ(F7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2">
         <f>_xlfn.RANK.EQ(G7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <f>_xlfn.RANK.EQ(H7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="R7" s="2">
         <f>_xlfn.RANK.EQ(I7,$B7:$I7,Paraméterek!$C4)*Paraméterek!$B4</f>
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1315,35 +1315,35 @@
       </c>
       <c r="K8" s="2">
         <f>_xlfn.RANK.EQ(B8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L8" s="2">
         <f>_xlfn.RANK.EQ(C8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2">
         <f>_xlfn.RANK.EQ(D8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2">
         <f>_xlfn.RANK.EQ(E8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
         <f>_xlfn.RANK.EQ(F8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="P8" s="2">
         <f>_xlfn.RANK.EQ(G8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="2">
         <f>_xlfn.RANK.EQ(H8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <f>_xlfn.RANK.EQ(I8,$B8:$I8,Paraméterek!$C5)*Paraméterek!$B5</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1376,35 +1376,35 @@
       </c>
       <c r="K9" s="2">
         <f>_xlfn.RANK.EQ(B9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>1.7999999999999998</v>
+        <v>6</v>
       </c>
       <c r="L9" s="2">
         <f>_xlfn.RANK.EQ(C9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>1.7999999999999998</v>
+        <v>6</v>
       </c>
       <c r="M9" s="2">
         <f>_xlfn.RANK.EQ(D9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>0.89999999999999991</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2">
         <f>_xlfn.RANK.EQ(E9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O9" s="2">
         <f>_xlfn.RANK.EQ(F9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="P9" s="2">
         <f>_xlfn.RANK.EQ(G9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="2">
         <f>_xlfn.RANK.EQ(H9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <f>_xlfn.RANK.EQ(I9,$B9:$I9,Paraméterek!$C6)*Paraméterek!$B6</f>
-        <v>0.89999999999999991</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1559,35 +1559,35 @@
       </c>
       <c r="K12" s="2">
         <f>_xlfn.RANK.EQ(B12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L12" s="2">
         <f>_xlfn.RANK.EQ(C12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="M12" s="2">
         <f>_xlfn.RANK.EQ(D12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="2">
         <f>_xlfn.RANK.EQ(E12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="O12" s="2">
         <f>_xlfn.RANK.EQ(F12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P12" s="2">
         <f>_xlfn.RANK.EQ(G12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="2">
         <f>_xlfn.RANK.EQ(H12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <f>_xlfn.RANK.EQ(I12,$B12:$I12,Paraméterek!$C9)*Paraméterek!$B9</f>
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1681,35 +1681,35 @@
       </c>
       <c r="K14" s="2">
         <f>_xlfn.RANK.EQ(B14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L14" s="2">
         <f>_xlfn.RANK.EQ(C14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
         <f>_xlfn.RANK.EQ(D14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N14" s="2">
         <f>_xlfn.RANK.EQ(E14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <f>_xlfn.RANK.EQ(F14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
         <f>_xlfn.RANK.EQ(G14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="2">
         <f>_xlfn.RANK.EQ(H14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R14" s="2">
         <f>_xlfn.RANK.EQ(I14,$B14:$I14,Paraméterek!$C11)*Paraméterek!$B11</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1812,7 +1812,7 @@
         <v>Lövészet találat</v>
       </c>
       <c r="B2" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>Lövészet idő (sec)</v>
       </c>
       <c r="B3" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>Akadálypálya (perc:mp)</v>
       </c>
       <c r="B4" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>Gránátdobás (találat)</v>
       </c>
       <c r="B5" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>Gránátdobás (perc:mp)</v>
       </c>
       <c r="B6" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>Fegyveres váltó (p:mp)</v>
       </c>
       <c r="B9" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>Katonai alapismeretek (pont)</v>
       </c>
       <c r="B11" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
